--- a/Documentation/Verification_Plan/Functional_Test_Plan_Template.xlsx
+++ b/Documentation/Verification_Plan/Functional_Test_Plan_Template.xlsx
@@ -18,21 +18,26 @@
     <sheet name="BLK-5" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$54</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="79">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -1579,11 +1584,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="25712071"/>
-        <c:axId val="34219932"/>
+        <c:axId val="56163683"/>
+        <c:axId val="83647886"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25712071"/>
+        <c:axId val="56163683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,14 +1624,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34219932"/>
+        <c:crossAx val="83647886"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34219932"/>
+        <c:axId val="83647886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25712071"/>
+        <c:crossAx val="56163683"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1717,9 +1722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
+      <xdr:colOff>703800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1729,7 +1734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1039320" y="2209680"/>
-          <a:ext cx="4650120" cy="1113480"/>
+          <a:ext cx="4650480" cy="1113120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,9 +2077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2083,7 +2088,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="657000" y="193320"/>
-        <a:ext cx="5123520" cy="2581920"/>
+        <a:ext cx="5123160" cy="2581560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2529,14 +2534,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="43.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="50.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="16.45"/>
@@ -2545,15 +2550,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="30" min="23" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="6" width="9.18"/>
@@ -2961,7 +2966,9 @@
         <v>55</v>
       </c>
       <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="45"/>
       <c r="G10" s="46"/>
       <c r="H10" s="43"/>
@@ -2990,7 +2997,9 @@
         <v>55</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="45"/>
       <c r="G11" s="46"/>
       <c r="H11" s="43"/>
@@ -3019,7 +3028,9 @@
         <v>58</v>
       </c>
       <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="E12" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="45"/>
       <c r="G12" s="46"/>
       <c r="H12" s="43"/>
@@ -3048,7 +3059,9 @@
         <v>58</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="E13" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="45"/>
       <c r="G13" s="46"/>
       <c r="H13" s="43"/>
@@ -3077,7 +3090,9 @@
         <v>58</v>
       </c>
       <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="45"/>
       <c r="G14" s="46"/>
       <c r="H14" s="43"/>
@@ -3106,7 +3121,9 @@
         <v>58</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="45"/>
       <c r="G15" s="46"/>
       <c r="H15" s="43"/>
@@ -4147,7 +4164,7 @@
       <c r="U54" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J54"/>
+  <autoFilter ref="A4:J4"/>
   <mergeCells count="17">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -4516,12 +4533,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F54" type="list">
+      <formula1>"CRITICAL,HIGH,MEDIUM,LOW"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I5:I54" type="list">
       <formula1>"DSGN,TB,TC"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F54" type="list">
-      <formula1>"CRITICAL,HIGH,MEDIUM,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:L54 N5:N54 P5:P54 R5:R54 T5:T54" type="list">
@@ -4565,7 +4582,7 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="50.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="16.45"/>
@@ -4574,15 +4591,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="30" min="23" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="6" width="9.18"/>
@@ -6256,7 +6273,7 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="50.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="16.45"/>
@@ -6265,15 +6282,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="30" min="23" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="6" width="9.18"/>
@@ -7947,7 +7964,7 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="50.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="16.45"/>
@@ -7956,15 +7973,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="30" min="23" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="6" width="9.18"/>
@@ -9638,7 +9655,7 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="50.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="16.45"/>
@@ -9647,15 +9664,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="30" min="23" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="6" width="9.18"/>

--- a/Documentation/Verification_Plan/Functional_Test_Plan_Template.xlsx
+++ b/Documentation/Verification_Plan/Functional_Test_Plan_Template.xlsx
@@ -18,26 +18,31 @@
     <sheet name="BLK-5" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$55</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-1'!$A$4:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'BLK-1'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'BLK-2'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'BLK-3'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'BLK-4'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'BLK-5'!$A$4:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="80">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -261,10 +266,13 @@
     <t xml:space="preserve">Random test</t>
   </si>
   <si>
-    <t xml:space="preserve">ei_tdp_ram_b2b_wr_rd_test</t>
+    <t xml:space="preserve">ei_tdp_ram_p1_b2b_wr_p1_rd_test</t>
   </si>
   <si>
     <t xml:space="preserve">Overwrite check of memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ei_tdp_ram_p2_b2b_wr_p2_rd_test</t>
   </si>
   <si>
     <t xml:space="preserve">ei_tdp_ram_reset_inbetween_p1_5_wr_test</t>
@@ -282,10 +290,10 @@
     <t xml:space="preserve">ei_tdp_ram_reset_inbetween_p2_5_rd_test</t>
   </si>
   <si>
-    <t xml:space="preserve">ei_tdp_ram_p1_wr_p2_rd_same_time_test</t>
+    <t xml:space="preserve">ei_tdp_ram_p1_wr_p2_rd_same_addr_test</t>
   </si>
   <si>
-    <t xml:space="preserve">ei_tdp_ram_p2_wr_p1_rd_same_time_test</t>
+    <t xml:space="preserve">ei_tdp_ram_p2_wr_p1_rd_same_addr_test</t>
   </si>
 </sst>
 </file>
@@ -473,7 +481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +534,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF007F"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -626,7 +640,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -817,6 +831,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1120,7 @@
       <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFF007F"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFC00000"/>
       <rgbColor rgb="FF008000"/>
@@ -1584,11 +1626,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="56163683"/>
-        <c:axId val="83647886"/>
+        <c:axId val="20992622"/>
+        <c:axId val="29091998"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56163683"/>
+        <c:axId val="20992622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,14 +1666,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83647886"/>
+        <c:crossAx val="29091998"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83647886"/>
+        <c:axId val="29091998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1716,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56163683"/>
+        <c:crossAx val="20992622"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1722,9 +1764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>703800</xdr:colOff>
+      <xdr:colOff>703440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1734,7 +1776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1039320" y="2209680"/>
-          <a:ext cx="4650480" cy="1113120"/>
+          <a:ext cx="4650120" cy="1112760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2077,9 +2119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2088,7 +2130,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="657000" y="193320"/>
-        <a:ext cx="5123160" cy="2581560"/>
+        <a:ext cx="5122800" cy="2581200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2527,14 +2569,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3140,63 +3182,63 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="n">
+    <row r="16" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="48" t="n">
         <f aca="false">A15+1</f>
         <v>12</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="n">
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+    </row>
+    <row r="17" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="48" t="n">
         <f aca="false">A16+1</f>
         <v>13</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="n">
@@ -3210,7 +3252,9 @@
         <v>66</v>
       </c>
       <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F18" s="45"/>
       <c r="G18" s="46"/>
       <c r="H18" s="43"/>
@@ -3239,7 +3283,9 @@
         <v>66</v>
       </c>
       <c r="D19" s="43"/>
-      <c r="E19" s="45"/>
+      <c r="E19" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
       <c r="H19" s="43"/>
@@ -3268,7 +3314,9 @@
         <v>69</v>
       </c>
       <c r="D20" s="43"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F20" s="45"/>
       <c r="G20" s="46"/>
       <c r="H20" s="43"/>
@@ -3297,7 +3345,9 @@
         <v>71</v>
       </c>
       <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
       <c r="H21" s="43"/>
@@ -3323,10 +3373,12 @@
         <v>72</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F22" s="45"/>
       <c r="G22" s="46"/>
       <c r="H22" s="43"/>
@@ -3349,13 +3401,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>73</v>
-      </c>
       <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="E23" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="43"/>
@@ -3381,10 +3435,12 @@
         <v>75</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="E24" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="45"/>
       <c r="G24" s="46"/>
       <c r="H24" s="43"/>
@@ -3410,10 +3466,12 @@
         <v>76</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F25" s="45"/>
       <c r="G25" s="46"/>
       <c r="H25" s="43"/>
@@ -3439,10 +3497,12 @@
         <v>77</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="E26" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F26" s="45"/>
       <c r="G26" s="46"/>
       <c r="H26" s="43"/>
@@ -3471,7 +3531,9 @@
         <v>52</v>
       </c>
       <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="E27" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F27" s="45"/>
       <c r="G27" s="46"/>
       <c r="H27" s="43"/>
@@ -3493,10 +3555,16 @@
         <f aca="false">A27+1</f>
         <v>24</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="E28" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F28" s="45"/>
       <c r="G28" s="46"/>
       <c r="H28" s="43"/>
@@ -4163,8 +4231,33 @@
       <c r="T54" s="45"/>
       <c r="U54" s="45"/>
     </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="35" t="n">
+        <f aca="false">A54+1</f>
+        <v>51</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:J4"/>
+  <autoFilter ref="A4:J55"/>
   <mergeCells count="17">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:M1"/>
@@ -4184,7 +4277,7 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E21:E54 E5:E18">
+  <conditionalFormatting sqref="E21:E55 E5:E18">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"C4"</formula>
     </cfRule>
@@ -4201,7 +4294,7 @@
       <formula>"C0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F54 F5:F18">
+  <conditionalFormatting sqref="F21:F55 F5:F18">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"Low"</formula>
     </cfRule>
@@ -4215,7 +4308,7 @@
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:L54 L5:L18">
+  <conditionalFormatting sqref="L21:L55 L5:L18">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"C4"</formula>
     </cfRule>
@@ -4232,7 +4325,7 @@
       <formula>"C0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N54 N5:N18">
+  <conditionalFormatting sqref="N21:N55 N5:N18">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"C4"</formula>
     </cfRule>
@@ -4249,7 +4342,7 @@
       <formula>"C0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21:P54 P5:P18">
+  <conditionalFormatting sqref="P21:P55 P5:P18">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"C4"</formula>
     </cfRule>
@@ -4266,7 +4359,7 @@
       <formula>"C0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R21:R54 R5:R18">
+  <conditionalFormatting sqref="R21:R55 R5:R18">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"C4"</formula>
     </cfRule>
@@ -4283,7 +4376,7 @@
       <formula>"C0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T54 T5:T18">
+  <conditionalFormatting sqref="T21:T55 T5:T18">
     <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>"C4"</formula>
     </cfRule>
@@ -4533,19 +4626,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F5:F55" type="list">
       <formula1>"CRITICAL,HIGH,MEDIUM,LOW"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I5:I54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I5:I55" type="list">
       <formula1>"DSGN,TB,TC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:L54 N5:N54 P5:P54 R5:R54 T5:T54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:L55 N5:N55 P5:P55 R5:R55 T5:T55" type="list">
       <formula1>"C0,C1,C2,C3,C4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E54" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E55" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
